--- a/template_hscode.xlsx
+++ b/template_hscode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MAT CONTENT</t>
   </si>
@@ -1200,13 +1200,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
@@ -1225,15 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12345</v>
+        <v>67890</v>
       </c>
     </row>
   </sheetData>

--- a/template_hscode.xlsx
+++ b/template_hscode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="540">
   <si>
     <t>MAT CONTENT</t>
   </si>
@@ -22,7 +22,1618 @@
     <t>HS CODE</t>
   </si>
   <si>
-    <t>MATCOBA</t>
+    <t>10282PRNT180</t>
+  </si>
+  <si>
+    <t>4821.10.90</t>
+  </si>
+  <si>
+    <t>18-IL-WHT-04</t>
+  </si>
+  <si>
+    <t>5807.10.00</t>
+  </si>
+  <si>
+    <t>98%BCI2%SPDX COL. OFF WHITE</t>
+  </si>
+  <si>
+    <t>5208.29.00</t>
+  </si>
+  <si>
+    <t>ADFI-303064</t>
+  </si>
+  <si>
+    <t>39199099</t>
+  </si>
+  <si>
+    <t>ADFI-314123</t>
+  </si>
+  <si>
+    <t>5903.90.90</t>
+  </si>
+  <si>
+    <t>ADFI-315612</t>
+  </si>
+  <si>
+    <t>3921.90.90</t>
+  </si>
+  <si>
+    <t>ADFI-3415-4MIL</t>
+  </si>
+  <si>
+    <t>ADFI-GLUE-3415-004-1524MM</t>
+  </si>
+  <si>
+    <t>ADFI-SEAM-314570</t>
+  </si>
+  <si>
+    <t>BBAG-ARC-BLISTER-1-65X78CM</t>
+  </si>
+  <si>
+    <t>3923.29.90</t>
+  </si>
+  <si>
+    <t>BBAG-ARC-BLISTER-2-55X65CM</t>
+  </si>
+  <si>
+    <t>BBAG-BLISTER-1-65X78CM</t>
+  </si>
+  <si>
+    <t>BBAG-BLISTER-2-55X65CM</t>
+  </si>
+  <si>
+    <t>BBAG-BLISTER-40X60CM</t>
+  </si>
+  <si>
+    <t>BBAG-BLISTER-50X70CM</t>
+  </si>
+  <si>
+    <t>BBAG-HUN-GUSSET-P110XL62CM(20+20CM)</t>
+  </si>
+  <si>
+    <t>BBAG-INDY-86X61+5CM</t>
+  </si>
+  <si>
+    <t>BBAG-KGL-58X94CM</t>
+  </si>
+  <si>
+    <t>BBAG-KGL-65X55CM</t>
+  </si>
+  <si>
+    <t>BBAG-KGL-65X78CM</t>
+  </si>
+  <si>
+    <t>BBG-BLK</t>
+  </si>
+  <si>
+    <t>BBG1-APS-BLISTERBAG</t>
+  </si>
+  <si>
+    <t>BEAD-306713</t>
+  </si>
+  <si>
+    <t>9606.21.00</t>
+  </si>
+  <si>
+    <t>BELT-14929</t>
+  </si>
+  <si>
+    <t>4203.30.00</t>
+  </si>
+  <si>
+    <t>BELT-HOOK-BENT-LOGO-20MM</t>
+  </si>
+  <si>
+    <t>BELT-LLB-P-STR48</t>
+  </si>
+  <si>
+    <t>BTN-GEN-2H</t>
+  </si>
+  <si>
+    <t>9606.10.10</t>
+  </si>
+  <si>
+    <t>BTN-GEN-AR-10867S</t>
+  </si>
+  <si>
+    <t>BUCK-0341239</t>
+  </si>
+  <si>
+    <t>8308.10.00</t>
+  </si>
+  <si>
+    <t>BUCK-06582</t>
+  </si>
+  <si>
+    <t>BUCK-07509-11MM</t>
+  </si>
+  <si>
+    <t>BUCK-1-06131</t>
+  </si>
+  <si>
+    <t>BUCK-1-0633/1-30632</t>
+  </si>
+  <si>
+    <t>BUCK-1-16130</t>
+  </si>
+  <si>
+    <t>5806.31.90</t>
+  </si>
+  <si>
+    <t>BUCK-10532-7181P(UTX)-1INCH</t>
+  </si>
+  <si>
+    <t>8308.90.90</t>
+  </si>
+  <si>
+    <t>BUCK-10534</t>
+  </si>
+  <si>
+    <t>BUCK-10534-7180P(UTX)-1INCH</t>
+  </si>
+  <si>
+    <t>BUCK-111-04129-000010</t>
+  </si>
+  <si>
+    <t>BUCK-111-15700-000010</t>
+  </si>
+  <si>
+    <t>6217.10.90</t>
+  </si>
+  <si>
+    <t>BUCK-111-30341/111-30355</t>
+  </si>
+  <si>
+    <t>BUCK-112-04757-000010</t>
+  </si>
+  <si>
+    <t>BUCK-1120412800001-0-38MM</t>
+  </si>
+  <si>
+    <t>BUCK-11204891000010-3_5MM</t>
+  </si>
+  <si>
+    <t>BUCK-114945</t>
+  </si>
+  <si>
+    <t>BUCK-118-60100-000000</t>
+  </si>
+  <si>
+    <t>BUCK-121-90164</t>
+  </si>
+  <si>
+    <t>BUCK-124841</t>
+  </si>
+  <si>
+    <t>BUCK-125844</t>
+  </si>
+  <si>
+    <t>BUCK-127787-111-40069-000000</t>
+  </si>
+  <si>
+    <t>BUCK-127787-111-40204-000000</t>
+  </si>
+  <si>
+    <t>BUCK-128081</t>
+  </si>
+  <si>
+    <t>BUCK-129141</t>
+  </si>
+  <si>
+    <t>BUCK-129901</t>
+  </si>
+  <si>
+    <t>BUCK-13065</t>
+  </si>
+  <si>
+    <t>BUCK-13065-20MM</t>
+  </si>
+  <si>
+    <t>BUCK-13067</t>
+  </si>
+  <si>
+    <t>BUCK-13067-20MM</t>
+  </si>
+  <si>
+    <t>BUCK-130721</t>
+  </si>
+  <si>
+    <t>BUCK-143763</t>
+  </si>
+  <si>
+    <t>BUCK-146-01065-000011</t>
+  </si>
+  <si>
+    <t>3926.90.99</t>
+  </si>
+  <si>
+    <t>BUCK-148041</t>
+  </si>
+  <si>
+    <t>BUCK-148441</t>
+  </si>
+  <si>
+    <t>BUCK-14929</t>
+  </si>
+  <si>
+    <t>BUCK-151694</t>
+  </si>
+  <si>
+    <t>BUCK-170493</t>
+  </si>
+  <si>
+    <t>BUCK-17756-STAINLESSSTEEL(304)-25MM</t>
+  </si>
+  <si>
+    <t>BUCK-18934-1-5MM</t>
+  </si>
+  <si>
+    <t>BUCK-199-00907-090011</t>
+  </si>
+  <si>
+    <t>BUCK-199-00907-090031</t>
+  </si>
+  <si>
+    <t>BUCK-199-00909-090221</t>
+  </si>
+  <si>
+    <t>BUCK-1_05914/1_05915</t>
+  </si>
+  <si>
+    <t>BUCK-2-14128</t>
+  </si>
+  <si>
+    <t>BUCK-2058-PP-777-16_4X8_6MM</t>
+  </si>
+  <si>
+    <t>BUCK-22393-BELT</t>
+  </si>
+  <si>
+    <t>BUCK-22393-BELT-BUCKLE</t>
+  </si>
+  <si>
+    <t>BUCK-300433</t>
+  </si>
+  <si>
+    <t>5308.10.00</t>
+  </si>
+  <si>
+    <t>BUCK-300698</t>
+  </si>
+  <si>
+    <t>BUCK-300741</t>
+  </si>
+  <si>
+    <t>BUCK-300753</t>
+  </si>
+  <si>
+    <t>BUCK-300859</t>
+  </si>
+  <si>
+    <t>BUCK-300942</t>
+  </si>
+  <si>
+    <t>BUCK-301159</t>
+  </si>
+  <si>
+    <t>BUCK-301458</t>
+  </si>
+  <si>
+    <t>BUCK-301598</t>
+  </si>
+  <si>
+    <t>BUCK-301938</t>
+  </si>
+  <si>
+    <t>BUCK-302747</t>
+  </si>
+  <si>
+    <t>BUCK-305589</t>
+  </si>
+  <si>
+    <t>BUCK-305590</t>
+  </si>
+  <si>
+    <t>BUCK-305910-25MM</t>
+  </si>
+  <si>
+    <t>BUCK-306337</t>
+  </si>
+  <si>
+    <t>BUCK-306338</t>
+  </si>
+  <si>
+    <t>BUCK-307287</t>
+  </si>
+  <si>
+    <t>BUCK-311249</t>
+  </si>
+  <si>
+    <t>BUCK-4891</t>
+  </si>
+  <si>
+    <t>BUCK-5850</t>
+  </si>
+  <si>
+    <t>BUCK-6226-CORDLOCK-NSCL 1</t>
+  </si>
+  <si>
+    <t>BUCK-84643-FEMALE</t>
+  </si>
+  <si>
+    <t>BUCK-84643-MALE</t>
+  </si>
+  <si>
+    <t>BUCK-9240042744</t>
+  </si>
+  <si>
+    <t>BUCK-ABLOKY000101</t>
+  </si>
+  <si>
+    <t>BUCK-ARC-13065</t>
+  </si>
+  <si>
+    <t>BUCK-ARC-13067</t>
+  </si>
+  <si>
+    <t>BUCK-ARC-14929</t>
+  </si>
+  <si>
+    <t>BUCK-ARC-18934-1_5M/M</t>
+  </si>
+  <si>
+    <t>BUCK-ASL-07509</t>
+  </si>
+  <si>
+    <t>BUCK-CARABINER-22393</t>
+  </si>
+  <si>
+    <t>BUCK-CORDLOCK-NSCL-1</t>
+  </si>
+  <si>
+    <t>BUCK-D-RING-1-50067</t>
+  </si>
+  <si>
+    <t>BUCK-D-RING-2-04274</t>
+  </si>
+  <si>
+    <t>BUCK-D-RING-50MM</t>
+  </si>
+  <si>
+    <t>BUCK-D-RING-LD-15E-0_625INCH</t>
+  </si>
+  <si>
+    <t>BUCK-DU225</t>
+  </si>
+  <si>
+    <t>9606.29.00</t>
+  </si>
+  <si>
+    <t>BUCK-E1-550</t>
+  </si>
+  <si>
+    <t>BUCK-EBH01BKEZS</t>
+  </si>
+  <si>
+    <t>BUCK-FCL2A</t>
+  </si>
+  <si>
+    <t>BUCK-G-DR01</t>
+  </si>
+  <si>
+    <t>BUCK-G-DR02-F18</t>
+  </si>
+  <si>
+    <t>BUCK-G-SA01-F18</t>
+  </si>
+  <si>
+    <t>BUCK-HL22-2CM</t>
+  </si>
+  <si>
+    <t>BUCK-HS158</t>
+  </si>
+  <si>
+    <t>BUCK-HT-MT022</t>
+  </si>
+  <si>
+    <t>BUCK-JSRB38A</t>
+  </si>
+  <si>
+    <t>BUCK-LB-25S</t>
+  </si>
+  <si>
+    <t>BUCK-LB-30S-1_25INCH</t>
+  </si>
+  <si>
+    <t>BUCK-LB25WG</t>
+  </si>
+  <si>
+    <t>BUCK-LB38WG-38MM</t>
+  </si>
+  <si>
+    <t>BUCK-LLB-273/274</t>
+  </si>
+  <si>
+    <t>BUCK-LLB-31221E-4H-22L</t>
+  </si>
+  <si>
+    <t>BUCK-LLB-POL-129735</t>
+  </si>
+  <si>
+    <t>BUCK-LOWPROFILE-20MM</t>
+  </si>
+  <si>
+    <t>BUCK-MAGIC-LOCK-111-90567-000000-A</t>
+  </si>
+  <si>
+    <t>BUCK-MAGIC-LOCK-111-90568-000000-B</t>
+  </si>
+  <si>
+    <t>BUCK-MTI-B0448-1-1/4INCH</t>
+  </si>
+  <si>
+    <t>BUCK-MTI-RK114-1-1/4INCH</t>
+  </si>
+  <si>
+    <t>BUCK-MTIB0380</t>
+  </si>
+  <si>
+    <t>BUCK-MTIRK112</t>
+  </si>
+  <si>
+    <t>BUCK-MTIRK112/MTIB0380</t>
+  </si>
+  <si>
+    <t>BUCK-MTIRK112/MTIB0380-1_1/2IN/1_5/8IN</t>
+  </si>
+  <si>
+    <t>BUCK-P239</t>
+  </si>
+  <si>
+    <t>BUCK-PA226</t>
+  </si>
+  <si>
+    <t>BUCK-PLS-8046/7525</t>
+  </si>
+  <si>
+    <t>BUCK-PLS-ADJUSTER</t>
+  </si>
+  <si>
+    <t>BUCK-PP-777-16_4X8_6MM</t>
+  </si>
+  <si>
+    <t>BUCK-PS4128TR01</t>
+  </si>
+  <si>
+    <t>BUCK-SAMPLE-BUCKLE-FOC</t>
+  </si>
+  <si>
+    <t>BUCK-SCYA</t>
+  </si>
+  <si>
+    <t>BUCK-SEWABLE-LOOP-1-05995</t>
+  </si>
+  <si>
+    <t>BUCK-SEWABLE-LOOP-1-05996</t>
+  </si>
+  <si>
+    <t>BUCK-SH0001</t>
+  </si>
+  <si>
+    <t>BUCK-SLIPLOCK-121-20234-000010</t>
+  </si>
+  <si>
+    <t>BUCK-SQUARE-D-RING</t>
+  </si>
+  <si>
+    <t>BUCK-STAINLESSSTEEL(304)-25MM</t>
+  </si>
+  <si>
+    <t>BUCK-TRM0051</t>
+  </si>
+  <si>
+    <t>BUCK-TSI-PU-24-6-INCH</t>
+  </si>
+  <si>
+    <t>BUCK-TSI-PU-24-6INCH</t>
+  </si>
+  <si>
+    <t>BUCK-UNILOOP-111-15770-000010</t>
+  </si>
+  <si>
+    <t>BUCK-W18-WN-AK-31</t>
+  </si>
+  <si>
+    <t>BUCK-WI22-1INCH</t>
+  </si>
+  <si>
+    <t>BUCKLE-LB25WG1</t>
+  </si>
+  <si>
+    <t>BUGE-1260001-3MM</t>
+  </si>
+  <si>
+    <t>5607.29.00</t>
+  </si>
+  <si>
+    <t>BUGE-308368</t>
+  </si>
+  <si>
+    <t>5604.90.90</t>
+  </si>
+  <si>
+    <t>BUGE-LE-6362</t>
+  </si>
+  <si>
+    <t>56049090</t>
+  </si>
+  <si>
+    <t>BUGE-PS2317-3MM</t>
+  </si>
+  <si>
+    <t>BUGE-RC030</t>
+  </si>
+  <si>
+    <t>6006.42.10</t>
+  </si>
+  <si>
+    <t>BUGE-RC035</t>
+  </si>
+  <si>
+    <t>BUGE-SAMPLE-BUNGEE-CORD-FOC</t>
+  </si>
+  <si>
+    <t>BUGE-ZEN-01234-QA-3MM</t>
+  </si>
+  <si>
+    <t>BUTT-0338089-PART-B</t>
+  </si>
+  <si>
+    <t>BUTT-103580</t>
+  </si>
+  <si>
+    <t>BUTT-113-37105-306870-PART-A</t>
+  </si>
+  <si>
+    <t>BUTT-113-37105-306870-PART-B</t>
+  </si>
+  <si>
+    <t>BUTT-114983</t>
+  </si>
+  <si>
+    <t>BUTT-127357</t>
+  </si>
+  <si>
+    <t>BUTT-127928-LBSLT01</t>
+  </si>
+  <si>
+    <t>BUTT-129974-LBSLT02</t>
+  </si>
+  <si>
+    <t>BUTT-142-01792-000013</t>
+  </si>
+  <si>
+    <t>BUTT-149-00576-000011-28L</t>
+  </si>
+  <si>
+    <t>BUTT-174882</t>
+  </si>
+  <si>
+    <t>BUTT-18725-14L</t>
+  </si>
+  <si>
+    <t>BUTT-18725-18L</t>
+  </si>
+  <si>
+    <t>BUTT-24L-CHALK-MENTOS</t>
+  </si>
+  <si>
+    <t>BUTT-2893089673</t>
+  </si>
+  <si>
+    <t>BUTT-302936</t>
+  </si>
+  <si>
+    <t>BUTT-31221E-14L</t>
+  </si>
+  <si>
+    <t>BUTT-31221E-20L</t>
+  </si>
+  <si>
+    <t>BUTT-3303SD-30-LIGNE</t>
+  </si>
+  <si>
+    <t>BUTT-4046015621</t>
+  </si>
+  <si>
+    <t>BUTT-4H-ARTIH-9419-FAUXHORN-24L</t>
+  </si>
+  <si>
+    <t>BUTT-55547-27L</t>
+  </si>
+  <si>
+    <t>BUTT-62179000</t>
+  </si>
+  <si>
+    <t>BUTT-9910505242</t>
+  </si>
+  <si>
+    <t>BUTT-ART-PRPS-05</t>
+  </si>
+  <si>
+    <t>BUTT-ART5473</t>
+  </si>
+  <si>
+    <t>9606.21.00.001</t>
+  </si>
+  <si>
+    <t>BUTT-BL1810-16L</t>
+  </si>
+  <si>
+    <t>BUTT-BL1810-18L</t>
+  </si>
+  <si>
+    <t>BUTT-BL1810-4HL</t>
+  </si>
+  <si>
+    <t>BUTT-BORAGE-14L</t>
+  </si>
+  <si>
+    <t>BUTT-BORAGE-24L</t>
+  </si>
+  <si>
+    <t>BUTT-BT07031</t>
+  </si>
+  <si>
+    <t>9606.22.00</t>
+  </si>
+  <si>
+    <t>BUTT-BT60652</t>
+  </si>
+  <si>
+    <t>BUTT-C53-K883-KN1-PART-A</t>
+  </si>
+  <si>
+    <t>BUTT-CFL-2074724466</t>
+  </si>
+  <si>
+    <t>BUTT-CHING-1825587450</t>
+  </si>
+  <si>
+    <t>BUTT-CLOV-02-14L</t>
+  </si>
+  <si>
+    <t>BUTT-CLOV-02-18L</t>
+  </si>
+  <si>
+    <t>BUTT-CLOV-02-19L</t>
+  </si>
+  <si>
+    <t>BUTT-CLOV-02-LOGO</t>
+  </si>
+  <si>
+    <t>BUTT-CLOV-20-14L</t>
+  </si>
+  <si>
+    <t>BUTT-DT24-4HL</t>
+  </si>
+  <si>
+    <t>BUTT-G-S04</t>
+  </si>
+  <si>
+    <t>BUTT-G09-HE01-F18</t>
+  </si>
+  <si>
+    <t>BUTT-H42-W/-ORVIS</t>
+  </si>
+  <si>
+    <t>BUTT-IH-9419</t>
+  </si>
+  <si>
+    <t>BUTT-JB3-6489</t>
+  </si>
+  <si>
+    <t>BUTT-JB3-6489SL-27L</t>
+  </si>
+  <si>
+    <t>BUTT-KEGO-6628420831</t>
+  </si>
+  <si>
+    <t>BUTT-KEGO-6628420842</t>
+  </si>
+  <si>
+    <t>BUTT-LB758-20L</t>
+  </si>
+  <si>
+    <t>BUTT-MTL-103612-103372</t>
+  </si>
+  <si>
+    <t>BUTT-MTL-11L</t>
+  </si>
+  <si>
+    <t>BUTT-MTL-836420185</t>
+  </si>
+  <si>
+    <t>BUTT-MTL-NLSDSTD-18L</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-0715</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-0715-FT033-20L</t>
+  </si>
+  <si>
+    <t>9606.10.90.004</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-0831-14L</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-0831-20L</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-JB-0911-28L</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-JB-0911-30L</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-JB-122-27L</t>
+  </si>
+  <si>
+    <t>BUTT-ORV-JB-122-30L</t>
+  </si>
+  <si>
+    <t>BUTT-P-INDUSTRO-14L</t>
+  </si>
+  <si>
+    <t>BUTT-P-INDUSTRO-24L</t>
+  </si>
+  <si>
+    <t>BUTT-PLBTN11</t>
+  </si>
+  <si>
+    <t>BUTT-PLS-301495</t>
+  </si>
+  <si>
+    <t>BUTT-PLS-836420185</t>
+  </si>
+  <si>
+    <t>BUTT-PLS-DOFF-4H</t>
+  </si>
+  <si>
+    <t>BUTT-PLS-K711-HKMU-358</t>
+  </si>
+  <si>
+    <t>BUTT-PLS-SHIRT-4H</t>
+  </si>
+  <si>
+    <t>BUTT-PLY-CB-7201</t>
+  </si>
+  <si>
+    <t>BUTT-PLY-IS6860</t>
+  </si>
+  <si>
+    <t>BUTT-PRPS-05</t>
+  </si>
+  <si>
+    <t>BUTT-RB6611-18L</t>
+  </si>
+  <si>
+    <t>BUTT-RBR-PBR-AK728-13MM</t>
+  </si>
+  <si>
+    <t>BUTT-SAMPLE-BUTTON-FOC</t>
+  </si>
+  <si>
+    <t>BUTT-SB-HB14-17-18L</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK BUTTON</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK-27L</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK-BUTTON-571-K883-960</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK-JB2-6824</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK-JB3-6822</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK-JB3-6822-PART-A</t>
+  </si>
+  <si>
+    <t>BUTT-SHANK-JB3-6822-PART-B</t>
+  </si>
+  <si>
+    <t>BUTT-SHK-JB3-6862</t>
+  </si>
+  <si>
+    <t>BUTT-SHK-JB3-6862-PART-A</t>
+  </si>
+  <si>
+    <t>BUTT-SHK-JB3-6862-PART-B</t>
+  </si>
+  <si>
+    <t>BUTT-SHK-JB3-6862SL</t>
+  </si>
+  <si>
+    <t>BUTT-SHK-JB3-6862SL-PART-A</t>
+  </si>
+  <si>
+    <t>BUTT-SHK-JB3-6862SL-PART-B</t>
+  </si>
+  <si>
+    <t>BUTT-SN-117-41151-APART</t>
+  </si>
+  <si>
+    <t>BUTT-SW-3440</t>
+  </si>
+  <si>
+    <t>BUTT-WAS-28L 100% POLYESTER</t>
+  </si>
+  <si>
+    <t>BUTT-WAS-POLY-BUTTON-28L</t>
+  </si>
+  <si>
+    <t>BUTT-WAS-SHIRT-BUTTON-16L</t>
+  </si>
+  <si>
+    <t>BUTT-YS5473-14L</t>
+  </si>
+  <si>
+    <t>BUTT-YS5473-18L</t>
+  </si>
+  <si>
+    <t>BUTT-ZHEJIANG-338080426</t>
+  </si>
+  <si>
+    <t>BUTT-ZHEJIANG-POLYESTER</t>
+  </si>
+  <si>
+    <t>BUTT-ZSCB32-4H</t>
+  </si>
+  <si>
+    <t>CARA-17870-J-HOOK-4CM</t>
+  </si>
+  <si>
+    <t>CARA-CARABINER-199-00906-090049</t>
+  </si>
+  <si>
+    <t>CARA-G-KC01</t>
+  </si>
+  <si>
+    <t>9607.20.00</t>
+  </si>
+  <si>
+    <t>CARA-HOOKCLIP-JC026</t>
+  </si>
+  <si>
+    <t>3926.20.90</t>
+  </si>
+  <si>
+    <t>CARA-SAMPLE-CARABINER-FOC</t>
+  </si>
+  <si>
+    <t>CARA-TH-4022</t>
+  </si>
+  <si>
+    <t>CARA-TH-4022-F18</t>
+  </si>
+  <si>
+    <t>CBOD-DUL-CARDBOARD-CLLR</t>
+  </si>
+  <si>
+    <t>CBOD-DUL-CARDBOARD-COLLAR</t>
+  </si>
+  <si>
+    <t>CBOD-LLB-7X9INCH</t>
+  </si>
+  <si>
+    <t>CBOD-LLB-8_5X10_5INCH</t>
+  </si>
+  <si>
+    <t>CBOD-LLB-8_5X11_5INCH</t>
+  </si>
+  <si>
+    <t>CBOD-LLB-CARDBOARD-21X30CM</t>
+  </si>
+  <si>
+    <t>CBOD-LLB-CARDBOARD-29X33CM</t>
+  </si>
+  <si>
+    <t>CBOD-LLB-CARDBOARD-30X32CM</t>
+  </si>
+  <si>
+    <t>CENS-LAB00657</t>
+  </si>
+  <si>
+    <t>CFC-36-DABAD034-V7-P12</t>
+  </si>
+  <si>
+    <t>CFIB-SAMPLE-CARDED-FIBER-FOC</t>
+  </si>
+  <si>
+    <t>CHAM-4491-8MM</t>
+  </si>
+  <si>
+    <t>5407.61.90</t>
+  </si>
+  <si>
+    <t>CHAM-BCP</t>
+  </si>
+  <si>
+    <t>4114.10.00</t>
+  </si>
+  <si>
+    <t>CHAM-CT-1531</t>
+  </si>
+  <si>
+    <t>CHAM-CT-1531-BLACK</t>
+  </si>
+  <si>
+    <t>CHAM-CT-1531-CARBON-GRAY</t>
+  </si>
+  <si>
+    <t>CHAM-E409606-B3-8</t>
+  </si>
+  <si>
+    <t>CHAM-G10-CH01</t>
+  </si>
+  <si>
+    <t>CHAM-MW-CH01</t>
+  </si>
+  <si>
+    <t>CHAM-MW-CH01-F18</t>
+  </si>
+  <si>
+    <t>CHAM-PRINT-13_5X15CM</t>
+  </si>
+  <si>
+    <t>CHAM-PRINT-13_5X15CM_</t>
+  </si>
+  <si>
+    <t>CHAM-SPY-PRINT-13_5X15CM</t>
+  </si>
+  <si>
+    <t>CHAM-WCP</t>
+  </si>
+  <si>
+    <t>CLIP-317-J0111557</t>
+  </si>
+  <si>
+    <t>CLIP-CLR-BYA</t>
+  </si>
+  <si>
+    <t>CLIP-CT-1561A-BLK</t>
+  </si>
+  <si>
+    <t>CLIP-DU225-F18</t>
+  </si>
+  <si>
+    <t>CLIP-ORV-X-2-METAL</t>
+  </si>
+  <si>
+    <t>3926.90.70</t>
+  </si>
+  <si>
+    <t>CLIP-PLAIN-318-J0111751</t>
+  </si>
+  <si>
+    <t>CLIP-PLASTICBUTTERFLY</t>
+  </si>
+  <si>
+    <t>CLIP-PLS-NONTEETH</t>
+  </si>
+  <si>
+    <t>CLIP-WHT-BYA</t>
+  </si>
+  <si>
+    <t>CNT8C 56 DABLH H3 T-B-0</t>
+  </si>
+  <si>
+    <t>9607.19.00</t>
+  </si>
+  <si>
+    <t>CORD-0340970</t>
+  </si>
+  <si>
+    <t>CORD-0341239</t>
+  </si>
+  <si>
+    <t>CORD-09094</t>
+  </si>
+  <si>
+    <t>CORD-1-00517(DNB/A)161-00517-000011</t>
+  </si>
+  <si>
+    <t>CORD-1-00771/161-00771-000011</t>
+  </si>
+  <si>
+    <t>CORD-1-90258(S327)-111-90258-000000</t>
+  </si>
+  <si>
+    <t>CORD-1-90521/111-90521-000000</t>
+  </si>
+  <si>
+    <t>CORD-103387</t>
+  </si>
+  <si>
+    <t>CORD-103394-P220-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-111-04129-000010</t>
+  </si>
+  <si>
+    <t>CORD-111-70069000000</t>
+  </si>
+  <si>
+    <t>CORD-112-00467-001010-P467STR1</t>
+  </si>
+  <si>
+    <t>CORD-112-00467-001020-P467STR2</t>
+  </si>
+  <si>
+    <t>CORD-112-20224-000010</t>
+  </si>
+  <si>
+    <t>CORD-1170114</t>
+  </si>
+  <si>
+    <t>5806.20.90</t>
+  </si>
+  <si>
+    <t>CORD-11733-7X11_8MM</t>
+  </si>
+  <si>
+    <t>CORD-11733-LOGO-PL-2588-7X11_8MM</t>
+  </si>
+  <si>
+    <t>CORD-11734-6_65X11_2MM</t>
+  </si>
+  <si>
+    <t>CORD-11764-7_9X13_3MM</t>
+  </si>
+  <si>
+    <t>CORD-118-70067-001000</t>
+  </si>
+  <si>
+    <t>CORD-118-70067-001010</t>
+  </si>
+  <si>
+    <t>CORD-118-80029-000010</t>
+  </si>
+  <si>
+    <t>5607.90.90</t>
+  </si>
+  <si>
+    <t>CORD-121-20235-000010</t>
+  </si>
+  <si>
+    <t>CORD-127787</t>
+  </si>
+  <si>
+    <t>CORD-128-90353-000000</t>
+  </si>
+  <si>
+    <t>CORD-13498</t>
+  </si>
+  <si>
+    <t>CORD-1383216</t>
+  </si>
+  <si>
+    <t>CORD-139261</t>
+  </si>
+  <si>
+    <t>CORD-142-00959-000013-LEFT-VERSION</t>
+  </si>
+  <si>
+    <t>CORD-142-00959-000023-RIGHT-VERSION</t>
+  </si>
+  <si>
+    <t>CORD-142-01687-000013</t>
+  </si>
+  <si>
+    <t>CORD-142-02216-000013</t>
+  </si>
+  <si>
+    <t>CORD-14783</t>
+  </si>
+  <si>
+    <t>CORD-149847</t>
+  </si>
+  <si>
+    <t>CORD-15603</t>
+  </si>
+  <si>
+    <t>CORD-15903</t>
+  </si>
+  <si>
+    <t>CORD-162-00857-000013</t>
+  </si>
+  <si>
+    <t>CORD-162-01161-000013</t>
+  </si>
+  <si>
+    <t>CORD-162-02238-000013-CORDLOCK-3MM</t>
+  </si>
+  <si>
+    <t>CORD-167962</t>
+  </si>
+  <si>
+    <t>CORD-177424</t>
+  </si>
+  <si>
+    <t>CORD-177426</t>
+  </si>
+  <si>
+    <t>CORD-186523</t>
+  </si>
+  <si>
+    <t>CORD-18703--P386</t>
+  </si>
+  <si>
+    <t>CORD-18703-P386</t>
+  </si>
+  <si>
+    <t>CORD-192-00777-000053</t>
+  </si>
+  <si>
+    <t>CORD-192-00797-000043</t>
+  </si>
+  <si>
+    <t>CORD-192-01042-000013</t>
+  </si>
+  <si>
+    <t>CORD-192-01090-000013</t>
+  </si>
+  <si>
+    <t>CORD-19631-FEMALE</t>
+  </si>
+  <si>
+    <t>CORD-19632-MALE</t>
+  </si>
+  <si>
+    <t>CORD-19633-FEMALE</t>
+  </si>
+  <si>
+    <t>CORD-19634-MALE</t>
+  </si>
+  <si>
+    <t>CORD-19635</t>
+  </si>
+  <si>
+    <t>CORD-19636</t>
+  </si>
+  <si>
+    <t>CORD-19637</t>
+  </si>
+  <si>
+    <t>CORD-19638</t>
+  </si>
+  <si>
+    <t>CORD-199-00903-000271</t>
+  </si>
+  <si>
+    <t>CORD-2-14128-STRAPADJUSTER</t>
+  </si>
+  <si>
+    <t>CORD-20161820/LE-7162-P</t>
+  </si>
+  <si>
+    <t>CORD-2051-40760LB</t>
+  </si>
+  <si>
+    <t>CORD-22029-CLTMA</t>
+  </si>
+  <si>
+    <t>CORD-2_5MM-P481</t>
+  </si>
+  <si>
+    <t>CORD-300185</t>
+  </si>
+  <si>
+    <t>CORD-300888</t>
+  </si>
+  <si>
+    <t>CORD-300929</t>
+  </si>
+  <si>
+    <t>CORD-300929-PART-A</t>
+  </si>
+  <si>
+    <t>CORD-300929-PART-B</t>
+  </si>
+  <si>
+    <t>CORD-301030</t>
+  </si>
+  <si>
+    <t>CORD-302412</t>
+  </si>
+  <si>
+    <t>CORD-303429</t>
+  </si>
+  <si>
+    <t>CORD-303567</t>
+  </si>
+  <si>
+    <t>CORD-305796-1_4MM</t>
+  </si>
+  <si>
+    <t>CORD-306338</t>
+  </si>
+  <si>
+    <t>CORD-306421</t>
+  </si>
+  <si>
+    <t>CORD-307401</t>
+  </si>
+  <si>
+    <t>CORD-307808</t>
+  </si>
+  <si>
+    <t>CORD-307819</t>
+  </si>
+  <si>
+    <t>CORD-312995</t>
+  </si>
+  <si>
+    <t>CORD-315812</t>
+  </si>
+  <si>
+    <t>CORD-317345</t>
+  </si>
+  <si>
+    <t>CORD-317346</t>
+  </si>
+  <si>
+    <t>CORD-40760LB</t>
+  </si>
+  <si>
+    <t>CORD-4169--FCL2AA</t>
+  </si>
+  <si>
+    <t>CORD-4169-FCL2AA</t>
+  </si>
+  <si>
+    <t>CORD-50569</t>
+  </si>
+  <si>
+    <t>CORD-50595</t>
+  </si>
+  <si>
+    <t>CORD-521308-2.5 MM</t>
+  </si>
+  <si>
+    <t>CORD-54144</t>
+  </si>
+  <si>
+    <t>CORD-5434</t>
+  </si>
+  <si>
+    <t>CORD-784110</t>
+  </si>
+  <si>
+    <t>5806.32.90</t>
+  </si>
+  <si>
+    <t>CORD-9817</t>
+  </si>
+  <si>
+    <t>CORD-APS-P-YL857TU01</t>
+  </si>
+  <si>
+    <t>CORD-APS-P386</t>
+  </si>
+  <si>
+    <t>CORD-APS-P467STR2(L)</t>
+  </si>
+  <si>
+    <t>CORD-APS-P46STR1(R)</t>
+  </si>
+  <si>
+    <t>CORD-ARC-FCL2AA</t>
+  </si>
+  <si>
+    <t>CORD-ARC-NP844-1_8X1_8CM</t>
+  </si>
+  <si>
+    <t>CORD-ARC-P386</t>
+  </si>
+  <si>
+    <t>CORD-B-LLB-0172</t>
+  </si>
+  <si>
+    <t>CORD-BEAD-CS39</t>
+  </si>
+  <si>
+    <t>CORD-CE9751-128011-20MM</t>
+  </si>
+  <si>
+    <t>CORD-CL102</t>
+  </si>
+  <si>
+    <t>CORD-CL102-ADHESIVE</t>
+  </si>
+  <si>
+    <t>CORD-CL102-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-CL102-SPRINGS</t>
+  </si>
+  <si>
+    <t>CORD-CL10X-G-2_0-ADHESIVE</t>
+  </si>
+  <si>
+    <t>3919.90.99</t>
+  </si>
+  <si>
+    <t>CORD-CL10X-G-2_0-CORD-FEMALE</t>
+  </si>
+  <si>
+    <t>CORD-CL10X-G-2_0-CORD-MALE</t>
+  </si>
+  <si>
+    <t>CORD-CL21X-G-2_0-ADHESIVE</t>
+  </si>
+  <si>
+    <t>CORD-CL21X-G-2_0-CORD-FEMALE</t>
+  </si>
+  <si>
+    <t>CORD-CL21X-G-2_0-CORD-MALE</t>
+  </si>
+  <si>
+    <t>CORD-CL21X-G-2_0-SPRING</t>
+  </si>
+  <si>
+    <t>7320.20.90</t>
+  </si>
+  <si>
+    <t>CORD-CL25</t>
+  </si>
+  <si>
+    <t>CORD-CL25A</t>
+  </si>
+  <si>
+    <t>CORD-CL34MA</t>
+  </si>
+  <si>
+    <t>CORD-CL381A</t>
+  </si>
+  <si>
+    <t>CORD-CL382</t>
+  </si>
+  <si>
+    <t>CORD-CL382A</t>
+  </si>
+  <si>
+    <t>CORD-CLS3</t>
+  </si>
+  <si>
+    <t>CORD-COFFEE-CUP-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-CORDLOCK-D1295</t>
+  </si>
+  <si>
+    <t>CORD-CORDLOCK-PA19</t>
+  </si>
+  <si>
+    <t>CORD-CS-074</t>
+  </si>
+  <si>
+    <t>CORD-CS-HB14-08</t>
+  </si>
+  <si>
+    <t>CORD-CS-HB15-14</t>
+  </si>
+  <si>
+    <t>CORD-CS-HB15-14-3MM</t>
+  </si>
+  <si>
+    <t>CORD-CS080</t>
+  </si>
+  <si>
+    <t>CORD-DA586</t>
+  </si>
+  <si>
+    <t>CORD-DB533</t>
+  </si>
+  <si>
+    <t>CORD-DCL-514</t>
+  </si>
+  <si>
+    <t>CORD-DL-2627</t>
+  </si>
+  <si>
+    <t>CORD-EBH02SLDZS</t>
+  </si>
+  <si>
+    <t>CORD-END-2-70028</t>
+  </si>
+  <si>
+    <t>CORD-END-PLS-CP032</t>
+  </si>
+  <si>
+    <t>CORD-FCL2AA</t>
+  </si>
+  <si>
+    <t>CORD-FS0010-0340094</t>
+  </si>
+  <si>
+    <t>CORD-HP38</t>
+  </si>
+  <si>
+    <t>CORD-HP631</t>
+  </si>
+  <si>
+    <t>CORD-HUNB-CSS-01</t>
+  </si>
+  <si>
+    <t>CORD-INDY-LB-JD9867A</t>
+  </si>
+  <si>
+    <t>5604.10.00</t>
+  </si>
+  <si>
+    <t>CORD-IRI5-2826159490</t>
+  </si>
+  <si>
+    <t>CORD-K365-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-KTS-356-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-KTS356</t>
+  </si>
+  <si>
+    <t>CORD-LLB-FCL2AA</t>
+  </si>
+  <si>
+    <t>CORD-LLB-HP868</t>
+  </si>
+  <si>
+    <t>CORD-LOCK-0341239</t>
+  </si>
+  <si>
+    <t>CORD-LOCK-0341239AA-0-81J</t>
+  </si>
+  <si>
+    <t>CORD-LOCK-116-70261-000000</t>
+  </si>
+  <si>
+    <t>6217.10.90.025</t>
+  </si>
+  <si>
+    <t>CORD-LOCK-GRIP-MP100310</t>
+  </si>
+  <si>
+    <t>CORD-LOGO-PL-2588-7X11_8MM</t>
+  </si>
+  <si>
+    <t>CORD-LS93-FAUX</t>
+  </si>
+  <si>
+    <t>CORD-M-2051-40760LB</t>
+  </si>
+  <si>
+    <t>8467.99.99</t>
+  </si>
+  <si>
+    <t>CORD-NEV-ARTDB434</t>
+  </si>
+  <si>
+    <t>CORD-NF-HK-POM-2H</t>
+  </si>
+  <si>
+    <t>CORD-NGS-LB-KIT006</t>
+  </si>
+  <si>
+    <t>CORD-NP1019</t>
+  </si>
+  <si>
+    <t>CORD-ORV-0609</t>
+  </si>
+  <si>
+    <t>CORD-ORV-0609D</t>
+  </si>
+  <si>
+    <t>CORD-P-306290</t>
+  </si>
+  <si>
+    <t>CORD-P-946-F18</t>
+  </si>
+  <si>
+    <t>CORD-P-CL10X-G-2_0-SPRING</t>
+  </si>
+  <si>
+    <t>CORD-P-YL475TR01</t>
+  </si>
+  <si>
+    <t>CORD-P048</t>
+  </si>
+  <si>
+    <t>CORD-P048(XS)</t>
+  </si>
+  <si>
+    <t>CORD-P048S-21_7X10_8MM</t>
+  </si>
+  <si>
+    <t>CORD-P166(S)</t>
+  </si>
+  <si>
+    <t>CORD-P213SS001</t>
+  </si>
+  <si>
+    <t>CORD-P220-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-P221STR1</t>
+  </si>
+  <si>
+    <t>CORD-P239-ADJUSTER</t>
+  </si>
+  <si>
+    <t>CORD-P278</t>
+  </si>
+  <si>
+    <t>CORD-P372</t>
+  </si>
+  <si>
+    <t>CORD-P386</t>
+  </si>
+  <si>
+    <t>CORD-P415</t>
+  </si>
+  <si>
+    <t>CORD-P481</t>
+  </si>
+  <si>
+    <t>CORD-P841</t>
+  </si>
+  <si>
+    <t>CORD-P841(M)</t>
+  </si>
+  <si>
+    <t>CORD-P950-F17</t>
+  </si>
+  <si>
+    <t>CORD-PA022</t>
+  </si>
+  <si>
+    <t>CORD-PA022-2H-19_4X15_5MM</t>
+  </si>
+  <si>
+    <t>CORD-PA022-F17</t>
+  </si>
+  <si>
+    <t>CORD-PA179-CORDLOCK</t>
+  </si>
+  <si>
+    <t>CORD-PA196</t>
+  </si>
+  <si>
+    <t>CORD-PCA022</t>
+  </si>
+  <si>
+    <t>CORD-PHTC01-W-1974</t>
+  </si>
+  <si>
+    <t>CORD-PLATE-121-20235-000010</t>
+  </si>
+  <si>
+    <t>CORD-PLS-4MM</t>
+  </si>
+  <si>
+    <t>CORD-PLS-CLTMA</t>
+  </si>
+  <si>
+    <t>CORD-PLS-EYELOCK-PLATE</t>
   </si>
 </sst>
 </file>
@@ -30,12 +1641,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +1660,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -515,31 +2131,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,124 +2161,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1200,16 +2819,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="30.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
@@ -1221,11 +2840,4003 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>67890</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
